--- a/Flight_Select_Itinerary/Default.xlsx
+++ b/Flight_Select_Itinerary/Default.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>$149.00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>ORDER_enabled</t>
   </si>
@@ -168,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,23 +175,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -211,36 +193,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -551,27 +515,11 @@
     <col min="16384" max="16384" width="22.60546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="3" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" ht="14.95" s="4" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5">
-        <v>200</v>
-      </c>
-      <c r="B3" s="2" t="b">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
